--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200312.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200312.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC899AF5-5603-4665-A556-981768E064ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10292,20 +10298,19 @@
     <t>吉木乃县</t>
   </si>
   <si>
-    <t>http://wjw.beijing.gov.cn/xwzx_20031/wnxw/202003/t20200313_1700570.html</t>
-  </si>
-  <si>
     <t>3月12日0时至24时，北京新增报告新冠肺炎确诊病例1例，为来自英国的境外输入病例。新增报告疑似病例9例，其中，荷兰输入3例，意大利输入2例，韩国输入1例，法国输入1例，奥地利输入1例，本市1例；密切接触者14人，其中境外输入13人。治愈出院病例8例，分别从市区两级定点医院出院。其中有2名男性，6名女性，年龄最小的26岁，最大的67岁。
         截至3月12日24时，累计确诊病例436例，治愈出院病例342例，死亡病例8例。现有疑似病例31例。累计确定密切接触者3739人，其中462人尚在隔离医学观察中。确诊病例中东城区14例、西城区53例、朝阳区72例、海淀区63例、丰台区43例、石景山区14例、门头沟区3例、房山区16例、通州区19例、顺义区10例、昌平区29例、大兴区39例、怀柔区7例、密云区7例、延庆区1例，平谷区尚未有病例，外地来京病例25例，境外输入病例21例。   
         全市有12个区已连续14天以上无新增确诊病例，具体为平谷区自有疫情以来无报告病例，延庆区49天，门头沟区39天，怀柔区35天，顺义区33天，密云区30天，石景山区28天，大兴区28天，房山区25天，昌平区24天，西城区22天，通州区22天。
         436例确诊病例中，男性病例206例，占47.2%，女性病例230例，占52.8%；年龄范围为6个月～94岁，其中5岁以下14例，占3.2%，6岁至17岁17例，占3.9%，18岁至59岁294例，占67.4%，60岁及以上111例，占25.5%。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wjw.beijing.gov.cn/xwzx_20031/wnxw/202003/t20200313_1700570.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
@@ -10378,7 +10383,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -10469,8 +10474,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10482,6 +10487,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -10744,54 +10752,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AN21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.08984375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.26953125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.05859375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.29296875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.8203125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.17578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.05859375" style="12" customWidth="1"/>
     <col min="6" max="6" width="7" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.64453125" style="12" customWidth="1"/>
     <col min="8" max="8" width="4" style="12" customWidth="1"/>
     <col min="9" max="9" width="11" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.54296875" style="14" customWidth="1"/>
-    <col min="11" max="11" width="11.26953125" style="14" customWidth="1"/>
-    <col min="12" max="16" width="12.453125" style="14" customWidth="1"/>
-    <col min="17" max="17" width="8.7265625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="11.90625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="11.26953125" style="12" customWidth="1"/>
-    <col min="20" max="20" width="14.6328125" style="13" customWidth="1"/>
-    <col min="21" max="21" width="67.81640625" style="14" customWidth="1"/>
-    <col min="22" max="22" width="10.6328125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="16.1796875" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.08984375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.52734375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.29296875" style="14" customWidth="1"/>
+    <col min="12" max="16" width="12.46875" style="14" customWidth="1"/>
+    <col min="17" max="17" width="8.703125" style="12" customWidth="1"/>
+    <col min="18" max="18" width="11.87890625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="11.29296875" style="12" customWidth="1"/>
+    <col min="20" max="20" width="14.64453125" style="13" customWidth="1"/>
+    <col min="21" max="21" width="67.8203125" style="14" customWidth="1"/>
+    <col min="22" max="22" width="10.64453125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="16.17578125" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.05859375" style="12" customWidth="1"/>
     <col min="25" max="25" width="20" style="12" customWidth="1"/>
-    <col min="26" max="26" width="15.1796875" style="12" customWidth="1"/>
-    <col min="27" max="27" width="12.81640625" style="12" customWidth="1"/>
-    <col min="28" max="28" width="19.08984375" style="12" customWidth="1"/>
-    <col min="29" max="29" width="25.453125" style="12" customWidth="1"/>
-    <col min="30" max="30" width="31.90625" style="12" customWidth="1"/>
-    <col min="31" max="31" width="21.90625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="24.453125" style="12" customWidth="1"/>
+    <col min="26" max="26" width="15.17578125" style="12" customWidth="1"/>
+    <col min="27" max="27" width="12.8203125" style="12" customWidth="1"/>
+    <col min="28" max="28" width="19.05859375" style="12" customWidth="1"/>
+    <col min="29" max="29" width="25.46875" style="12" customWidth="1"/>
+    <col min="30" max="30" width="31.87890625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="21.87890625" style="12" customWidth="1"/>
+    <col min="32" max="32" width="24.46875" style="12" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.90625" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.90625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.87890625" style="12" customWidth="1"/>
+    <col min="35" max="36" width="31.87890625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.87890625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.46875" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.08984375" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.90625" style="12"/>
+    <col min="40" max="40" width="5.05859375" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="10.87890625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="16.2">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="15.75">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10913,7 +10921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="145.19999999999999">
+    <row r="2" spans="1:40" ht="26" customHeight="1">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -10965,10 +10973,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U2" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V2" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V2" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="W2" s="13"/>
       <c r="Z2" s="13">
@@ -10987,7 +10995,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:40" ht="145.19999999999999">
+    <row r="3" spans="1:40" ht="26" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -11029,10 +11037,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U3" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V3" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z3" s="13">
         <v>43903.409722222219</v>
@@ -11048,7 +11056,7 @@
       </c>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:40" ht="145.19999999999999">
+    <row r="4" spans="1:40" ht="26" customHeight="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -11090,10 +11098,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U4" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V4" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V4" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z4" s="13">
         <v>43903.409722222219</v>
@@ -11109,7 +11117,7 @@
       </c>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:40" ht="145.19999999999999">
+    <row r="5" spans="1:40" ht="26" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -11151,10 +11159,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U5" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V5" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V5" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z5" s="13">
         <v>43903.409722222219</v>
@@ -11170,7 +11178,7 @@
       </c>
       <c r="AD5" s="13"/>
     </row>
-    <row r="6" spans="1:40" ht="145.19999999999999">
+    <row r="6" spans="1:40" ht="26" customHeight="1">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -11212,10 +11220,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U6" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V6" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V6" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z6" s="13">
         <v>43903.409722222219</v>
@@ -11231,7 +11239,7 @@
       </c>
       <c r="AD6" s="13"/>
     </row>
-    <row r="7" spans="1:40" ht="145.19999999999999">
+    <row r="7" spans="1:40" ht="26" customHeight="1">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -11273,10 +11281,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U7" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V7" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V7" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z7" s="13">
         <v>43903.409722222219</v>
@@ -11292,7 +11300,7 @@
       </c>
       <c r="AD7" s="13"/>
     </row>
-    <row r="8" spans="1:40" ht="145.19999999999999">
+    <row r="8" spans="1:40" ht="26" customHeight="1">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -11334,10 +11342,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U8" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V8" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V8" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z8" s="13">
         <v>43903.409722222219</v>
@@ -11353,7 +11361,7 @@
       </c>
       <c r="AD8" s="13"/>
     </row>
-    <row r="9" spans="1:40" ht="145.19999999999999">
+    <row r="9" spans="1:40" ht="26" customHeight="1">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -11395,10 +11403,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U9" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V9" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V9" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z9" s="13">
         <v>43903.409722222219</v>
@@ -11414,7 +11422,7 @@
       </c>
       <c r="AD9" s="13"/>
     </row>
-    <row r="10" spans="1:40" ht="145.19999999999999">
+    <row r="10" spans="1:40" ht="26" customHeight="1">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -11456,10 +11464,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U10" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V10" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V10" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z10" s="13">
         <v>43903.409722222219</v>
@@ -11475,7 +11483,7 @@
       </c>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:40" ht="145.19999999999999">
+    <row r="11" spans="1:40" ht="26" customHeight="1">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -11517,10 +11525,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U11" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V11" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V11" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z11" s="13">
         <v>43903.409722222219</v>
@@ -11536,7 +11544,7 @@
       </c>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:40" ht="145.19999999999999">
+    <row r="12" spans="1:40" ht="26" customHeight="1">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -11578,10 +11586,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U12" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V12" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V12" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z12" s="13">
         <v>43903.409722222219</v>
@@ -11597,7 +11605,7 @@
       </c>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:40" ht="145.19999999999999">
+    <row r="13" spans="1:40" ht="26" customHeight="1">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -11639,10 +11647,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U13" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V13" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V13" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z13" s="13">
         <v>43903.409722222219</v>
@@ -11658,7 +11666,7 @@
       </c>
       <c r="AD13" s="13"/>
     </row>
-    <row r="14" spans="1:40" ht="145.19999999999999">
+    <row r="14" spans="1:40" ht="26" customHeight="1">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -11700,10 +11708,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U14" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V14" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V14" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z14" s="13">
         <v>43903.409722222219</v>
@@ -11719,7 +11727,7 @@
       </c>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:40" ht="145.19999999999999">
+    <row r="15" spans="1:40" ht="26" customHeight="1">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -11761,10 +11769,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U15" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V15" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V15" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z15" s="13">
         <v>43903.409722222219</v>
@@ -11780,7 +11788,7 @@
       </c>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" spans="1:40" ht="145.19999999999999">
+    <row r="16" spans="1:40" ht="26" customHeight="1">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -11820,10 +11828,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U16" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V16" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V16" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z16" s="13">
         <v>43903.409722222219</v>
@@ -11839,7 +11847,7 @@
       </c>
       <c r="AD16" s="13"/>
     </row>
-    <row r="17" spans="1:30" ht="145.19999999999999">
+    <row r="17" spans="1:30" ht="26" customHeight="1">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -11881,10 +11889,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U17" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V17" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V17" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z17" s="13">
         <v>43903.409722222219</v>
@@ -11900,7 +11908,7 @@
       </c>
       <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="1:30" ht="145.19999999999999">
+    <row r="18" spans="1:30" ht="26" customHeight="1">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -11942,10 +11950,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U18" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V18" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V18" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z18" s="13">
         <v>43903.409722222219</v>
@@ -11961,7 +11969,7 @@
       </c>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" ht="145.19999999999999">
+    <row r="19" spans="1:30" ht="26" customHeight="1">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -12003,10 +12011,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U19" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V19" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V19" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z19" s="13">
         <v>43903.409722222219</v>
@@ -12022,7 +12030,7 @@
       </c>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="1:30" ht="145.19999999999999">
+    <row r="20" spans="1:30" ht="26" customHeight="1">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -12066,10 +12074,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U20" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V20" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z20" s="13">
         <v>43903.409722222219</v>
@@ -12085,7 +12093,7 @@
       </c>
       <c r="AD20" s="13"/>
     </row>
-    <row r="21" spans="1:30" ht="145.19999999999999">
+    <row r="21" spans="1:30" ht="26" customHeight="1">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -12135,10 +12143,10 @@
         <v>43903.399305555555</v>
       </c>
       <c r="U21" s="22" t="s">
+        <v>3297</v>
+      </c>
+      <c r="V21" s="21" t="s">
         <v>3298</v>
-      </c>
-      <c r="V21" s="21" t="s">
-        <v>3297</v>
       </c>
       <c r="Z21" s="13">
         <v>43903.409722222219</v>
@@ -12157,38 +12165,34 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC22 AC24:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC22 AC24:AC1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"未核查,已核查"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22 H24:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H22 H24:H1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>INDIRECT($G22)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B22 B24:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" sqref="B22 B24:B1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"国家级,省级,城市级,区县级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22 G24:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22 G24:G1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>INDIRECT($F22)</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:R22 I24:R1048576">
+    <dataValidation type="whole" operator="notEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I22:R22 I24:R1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA22 AA24:AA1048576 AE2:AE22 AE24:AE1048576 AK2:AK22 AK24:AK1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA22 AA24:AA1048576 AE2:AE22 AE24:AE1048576 AK2:AK22 AK24:AK1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>"手动,自动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG22 AG24:AG1048576 AM2:AM22 AM24:AM1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG22 AG24:AG1048576 AM2:AM22 AM24:AM1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"核查通过,核查未通过"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="V2" r:id="rId1"/>
-    <hyperlink ref="V3:V21" r:id="rId2" display="http://wjw.beijing.gov.cn/xwzx_20031/wnxw/202003/t20200313_1700570.html"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值">
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" error="输入一个列表中的值" xr:uid="{00000000-0002-0000-0000-000007000000}">
           <x14:formula1>
             <xm:f>中国各省市区县数据!$E$2:$E$36</xm:f>
           </x14:formula1>
@@ -12201,7 +12205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AN2908"/>
   <sheetViews>
     <sheetView topLeftCell="W1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -12209,10 +12213,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="5" max="5" width="13.46875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">

--- a/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200312.xlsx
+++ b/data/unchecked/manual_collect/china/beijing/beijingCaseStatistics_20200312.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pthyon文件\COVID-19\data\unchecked\manual_collect\china\beijing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC899AF5-5603-4665-A556-981768E064ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7C46C8-0C7B-4F93-945A-E75F30C5FE47}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新数据表" sheetId="1" r:id="rId1"/>
@@ -10755,51 +10755,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AN21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="5.05859375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="8.29296875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.8203125" style="13" customWidth="1"/>
-    <col min="4" max="4" width="15.17578125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="5.05859375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.08984375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="8.26953125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="5.08984375" style="12" customWidth="1"/>
     <col min="6" max="6" width="7" style="12" customWidth="1"/>
-    <col min="7" max="7" width="9.64453125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" style="12" customWidth="1"/>
     <col min="8" max="8" width="4" style="12" customWidth="1"/>
     <col min="9" max="9" width="11" style="14" customWidth="1"/>
-    <col min="10" max="10" width="11.52734375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="11.29296875" style="14" customWidth="1"/>
-    <col min="12" max="16" width="12.46875" style="14" customWidth="1"/>
-    <col min="17" max="17" width="8.703125" style="12" customWidth="1"/>
-    <col min="18" max="18" width="11.87890625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="11.29296875" style="12" customWidth="1"/>
-    <col min="20" max="20" width="14.64453125" style="13" customWidth="1"/>
-    <col min="21" max="21" width="67.8203125" style="14" customWidth="1"/>
-    <col min="22" max="22" width="10.64453125" style="12" customWidth="1"/>
-    <col min="23" max="23" width="16.17578125" style="12" customWidth="1"/>
-    <col min="24" max="24" width="16.05859375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="11.54296875" style="14" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" style="14" customWidth="1"/>
+    <col min="12" max="16" width="12.453125" style="14" customWidth="1"/>
+    <col min="17" max="17" width="8.7265625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="11.90625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="11.26953125" style="12" customWidth="1"/>
+    <col min="20" max="20" width="14.6328125" style="13" customWidth="1"/>
+    <col min="21" max="21" width="67.81640625" style="14" customWidth="1"/>
+    <col min="22" max="22" width="10.6328125" style="12" customWidth="1"/>
+    <col min="23" max="23" width="16.1796875" style="12" customWidth="1"/>
+    <col min="24" max="24" width="16.08984375" style="12" customWidth="1"/>
     <col min="25" max="25" width="20" style="12" customWidth="1"/>
-    <col min="26" max="26" width="15.17578125" style="12" customWidth="1"/>
-    <col min="27" max="27" width="12.8203125" style="12" customWidth="1"/>
-    <col min="28" max="28" width="19.05859375" style="12" customWidth="1"/>
-    <col min="29" max="29" width="25.46875" style="12" customWidth="1"/>
-    <col min="30" max="30" width="31.87890625" style="12" customWidth="1"/>
-    <col min="31" max="31" width="21.87890625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="24.46875" style="12" customWidth="1"/>
+    <col min="26" max="26" width="15.1796875" style="12" customWidth="1"/>
+    <col min="27" max="27" width="12.81640625" style="12" customWidth="1"/>
+    <col min="28" max="28" width="19.08984375" style="12" customWidth="1"/>
+    <col min="29" max="29" width="25.453125" style="12" customWidth="1"/>
+    <col min="30" max="30" width="31.90625" style="12" customWidth="1"/>
+    <col min="31" max="31" width="21.90625" style="12" customWidth="1"/>
+    <col min="32" max="32" width="24.453125" style="12" customWidth="1"/>
     <col min="33" max="33" width="31" style="12" customWidth="1"/>
-    <col min="34" max="34" width="8.87890625" style="12" customWidth="1"/>
-    <col min="35" max="36" width="31.87890625" style="12" customWidth="1"/>
-    <col min="37" max="37" width="21.87890625" style="12" customWidth="1"/>
-    <col min="38" max="38" width="24.46875" style="12" customWidth="1"/>
+    <col min="34" max="34" width="8.90625" style="12" customWidth="1"/>
+    <col min="35" max="36" width="31.90625" style="12" customWidth="1"/>
+    <col min="37" max="37" width="21.90625" style="12" customWidth="1"/>
+    <col min="38" max="38" width="24.453125" style="12" customWidth="1"/>
     <col min="39" max="39" width="31" style="12" customWidth="1"/>
-    <col min="40" max="40" width="5.05859375" style="12" customWidth="1"/>
-    <col min="41" max="16384" width="10.87890625" style="12"/>
+    <col min="40" max="40" width="5.08984375" style="12" customWidth="1"/>
+    <col min="41" max="16384" width="10.90625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="11" customFormat="1" ht="15.75">
+    <row r="1" spans="1:40" s="11" customFormat="1" ht="16.2">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -10921,7 +10921,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="26" customHeight="1">
+    <row r="2" spans="1:40" ht="25.95" customHeight="1">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -10929,10 +10929,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D2" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>41</v>
@@ -10995,7 +10995,7 @@
       <c r="AI2" s="13"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" spans="1:40" ht="26" customHeight="1">
+    <row r="3" spans="1:40" ht="25.95" customHeight="1">
       <c r="A3" s="19">
         <v>2</v>
       </c>
@@ -11003,10 +11003,10 @@
         <v>47</v>
       </c>
       <c r="C3" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D3" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E3" s="19" t="s">
         <v>41</v>
@@ -11056,7 +11056,7 @@
       </c>
       <c r="AD3" s="13"/>
     </row>
-    <row r="4" spans="1:40" ht="26" customHeight="1">
+    <row r="4" spans="1:40" ht="25.95" customHeight="1">
       <c r="A4" s="19">
         <v>3</v>
       </c>
@@ -11064,10 +11064,10 @@
         <v>47</v>
       </c>
       <c r="C4" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D4" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E4" s="19" t="s">
         <v>41</v>
@@ -11117,7 +11117,7 @@
       </c>
       <c r="AD4" s="13"/>
     </row>
-    <row r="5" spans="1:40" ht="26" customHeight="1">
+    <row r="5" spans="1:40" ht="25.95" customHeight="1">
       <c r="A5" s="19">
         <v>4</v>
       </c>
@@ -11125,10 +11125,10 @@
         <v>47</v>
       </c>
       <c r="C5" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D5" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E5" s="19" t="s">
         <v>41</v>
@@ -11178,7 +11178,7 @@
       </c>
       <c r="AD5" s="13"/>
     </row>
-    <row r="6" spans="1:40" ht="26" customHeight="1">
+    <row r="6" spans="1:40" ht="25.95" customHeight="1">
       <c r="A6" s="19">
         <v>5</v>
       </c>
@@ -11186,10 +11186,10 @@
         <v>47</v>
       </c>
       <c r="C6" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D6" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E6" s="19" t="s">
         <v>41</v>
@@ -11239,7 +11239,7 @@
       </c>
       <c r="AD6" s="13"/>
     </row>
-    <row r="7" spans="1:40" ht="26" customHeight="1">
+    <row r="7" spans="1:40" ht="25.95" customHeight="1">
       <c r="A7" s="19">
         <v>6</v>
       </c>
@@ -11247,10 +11247,10 @@
         <v>47</v>
       </c>
       <c r="C7" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D7" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E7" s="19" t="s">
         <v>41</v>
@@ -11300,7 +11300,7 @@
       </c>
       <c r="AD7" s="13"/>
     </row>
-    <row r="8" spans="1:40" ht="26" customHeight="1">
+    <row r="8" spans="1:40" ht="25.95" customHeight="1">
       <c r="A8" s="19">
         <v>7</v>
       </c>
@@ -11308,10 +11308,10 @@
         <v>47</v>
       </c>
       <c r="C8" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D8" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E8" s="19" t="s">
         <v>41</v>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="AD8" s="13"/>
     </row>
-    <row r="9" spans="1:40" ht="26" customHeight="1">
+    <row r="9" spans="1:40" ht="25.95" customHeight="1">
       <c r="A9" s="19">
         <v>8</v>
       </c>
@@ -11369,10 +11369,10 @@
         <v>47</v>
       </c>
       <c r="C9" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D9" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>41</v>
@@ -11422,7 +11422,7 @@
       </c>
       <c r="AD9" s="13"/>
     </row>
-    <row r="10" spans="1:40" ht="26" customHeight="1">
+    <row r="10" spans="1:40" ht="25.95" customHeight="1">
       <c r="A10" s="19">
         <v>9</v>
       </c>
@@ -11430,10 +11430,10 @@
         <v>47</v>
       </c>
       <c r="C10" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D10" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>41</v>
@@ -11483,7 +11483,7 @@
       </c>
       <c r="AD10" s="13"/>
     </row>
-    <row r="11" spans="1:40" ht="26" customHeight="1">
+    <row r="11" spans="1:40" ht="25.95" customHeight="1">
       <c r="A11" s="19">
         <v>10</v>
       </c>
@@ -11491,10 +11491,10 @@
         <v>47</v>
       </c>
       <c r="C11" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D11" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>41</v>
@@ -11544,7 +11544,7 @@
       </c>
       <c r="AD11" s="13"/>
     </row>
-    <row r="12" spans="1:40" ht="26" customHeight="1">
+    <row r="12" spans="1:40" ht="25.95" customHeight="1">
       <c r="A12" s="19">
         <v>11</v>
       </c>
@@ -11552,10 +11552,10 @@
         <v>47</v>
       </c>
       <c r="C12" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D12" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>41</v>
@@ -11605,7 +11605,7 @@
       </c>
       <c r="AD12" s="13"/>
     </row>
-    <row r="13" spans="1:40" ht="26" customHeight="1">
+    <row r="13" spans="1:40" ht="25.95" customHeight="1">
       <c r="A13" s="19">
         <v>12</v>
       </c>
@@ -11613,10 +11613,10 @@
         <v>47</v>
       </c>
       <c r="C13" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D13" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>41</v>
@@ -11666,7 +11666,7 @@
       </c>
       <c r="AD13" s="13"/>
     </row>
-    <row r="14" spans="1:40" ht="26" customHeight="1">
+    <row r="14" spans="1:40" ht="25.95" customHeight="1">
       <c r="A14" s="19">
         <v>13</v>
       </c>
@@ -11674,10 +11674,10 @@
         <v>47</v>
       </c>
       <c r="C14" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D14" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>41</v>
@@ -11727,7 +11727,7 @@
       </c>
       <c r="AD14" s="13"/>
     </row>
-    <row r="15" spans="1:40" ht="26" customHeight="1">
+    <row r="15" spans="1:40" ht="25.95" customHeight="1">
       <c r="A15" s="19">
         <v>14</v>
       </c>
@@ -11735,10 +11735,10 @@
         <v>47</v>
       </c>
       <c r="C15" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D15" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>41</v>
@@ -11788,7 +11788,7 @@
       </c>
       <c r="AD15" s="13"/>
     </row>
-    <row r="16" spans="1:40" ht="26" customHeight="1">
+    <row r="16" spans="1:40" ht="25.95" customHeight="1">
       <c r="A16" s="19">
         <v>15</v>
       </c>
@@ -11796,10 +11796,10 @@
         <v>47</v>
       </c>
       <c r="C16" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D16" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>41</v>
@@ -11847,7 +11847,7 @@
       </c>
       <c r="AD16" s="13"/>
     </row>
-    <row r="17" spans="1:30" ht="26" customHeight="1">
+    <row r="17" spans="1:30" ht="25.95" customHeight="1">
       <c r="A17" s="19">
         <v>16</v>
       </c>
@@ -11855,10 +11855,10 @@
         <v>47</v>
       </c>
       <c r="C17" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D17" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>41</v>
@@ -11908,7 +11908,7 @@
       </c>
       <c r="AD17" s="13"/>
     </row>
-    <row r="18" spans="1:30" ht="26" customHeight="1">
+    <row r="18" spans="1:30" ht="25.95" customHeight="1">
       <c r="A18" s="19">
         <v>17</v>
       </c>
@@ -11916,10 +11916,10 @@
         <v>47</v>
       </c>
       <c r="C18" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D18" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>41</v>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="AD18" s="13"/>
     </row>
-    <row r="19" spans="1:30" ht="26" customHeight="1">
+    <row r="19" spans="1:30" ht="25.95" customHeight="1">
       <c r="A19" s="19">
         <v>18</v>
       </c>
@@ -11977,10 +11977,10 @@
         <v>47</v>
       </c>
       <c r="C19" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D19" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>41</v>
@@ -12030,7 +12030,7 @@
       </c>
       <c r="AD19" s="13"/>
     </row>
-    <row r="20" spans="1:30" ht="26" customHeight="1">
+    <row r="20" spans="1:30" ht="25.95" customHeight="1">
       <c r="A20" s="19">
         <v>19</v>
       </c>
@@ -12038,10 +12038,10 @@
         <v>47</v>
       </c>
       <c r="C20" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D20" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>41</v>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="AD20" s="13"/>
     </row>
-    <row r="21" spans="1:30" ht="26" customHeight="1">
+    <row r="21" spans="1:30" ht="25.95" customHeight="1">
       <c r="A21" s="19">
         <v>20</v>
       </c>
@@ -12101,10 +12101,10 @@
         <v>47</v>
       </c>
       <c r="C21" s="18">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="D21" s="18">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>41</v>
@@ -12213,10 +12213,10 @@
       <selection pane="bottomLeft" activeCell="AN1" sqref="AN1:AN16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
   <cols>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="5" max="5" width="13.46875" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40">
